--- a/interview/kotae.xlsx
+++ b/interview/kotae.xlsx
@@ -19,13 +19,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">①今の会社ではどんな仕事をしていますか？ </t>
   </si>
   <si>
+    <t>現在は人材紹介、求人に関するウェブサイトを開発しています。リーダー役割として担当しています。リーダーなので、色々な事務をやっています。
+要件分析資料を作成したり、基本設計書を作成したり、健康のウェブサイトを製造したり、スケジュールもやった。3人のメンバーチームを管理していますので、毎日、タスクを割り当てをして、終わりの日で進捗のプロジェクトを報告して、レビューコードして、締め切りも守っています。
+その他は統合試験、コーディングも参加しています、問題があればメンバーにテクニカルサポートしてもらいます。
+PS: 健康のウェブサイトというのはそのサイトが初期sourcecodeを作成する。
+（controller, model, view, DBconnect方法,codeルール）</t>
+  </si>
+  <si>
     <t>- dev web php
-- kinh nghiệm 2 năm
+- kinh nghiệm 3 năm
 - vị trí hiện tại leader
 - vai trò trong dự án : 
 + phân tích yêu cầu
@@ -35,7 +42,6 @@
 + giám sát tiến độ 
 + báo cáo hàng ngày cho pm
 + thiết kế cấu trúc chính cho dự án</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -46,13 +52,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -78,7 +84,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -88,6 +94,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -369,28 +378,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="35.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.625" customWidth="1"/>
+    <col min="3" max="3" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="206.25">
+    <row r="1" spans="1:3" ht="199.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/interview/kotae.xlsx
+++ b/interview/kotae.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">①今の会社ではどんな仕事をしていますか？ </t>
   </si>
@@ -43,6 +44,19 @@
 + báo cáo hàng ngày cho pm
 + thiết kế cấu trúc chính cho dự án</t>
   </si>
+  <si>
+    <t xml:space="preserve">なぜ転職しようと思ったのですか？ </t>
+  </si>
+  <si>
+    <t>- nâng cao trình độ kỹ thuật
+- nâng cao khả năng quản lý dự án, quản lý đội nhóm
+- cải thiện khả năng ngoại ngữ
+- thêm nhiều thử thách ở môi trường mới
+- trải nghiệm cuộc sống , văn hóa nhật bản
+- thử học làm vài món ăn nhật như kiểu sushi
+- làm quen vs gái nhật vì dễ thương</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -52,13 +66,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Arial"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -84,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -97,6 +111,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -378,20 +395,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="35.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.625" customWidth="1"/>
-    <col min="3" max="3" width="67" customWidth="1"/>
+    <col min="3" max="3" width="84" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="199.5">
+    <row r="1" spans="1:3" ht="206.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -402,6 +419,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:3" ht="206.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/interview/kotae.xlsx
+++ b/interview/kotae.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">①今の会社ではどんな仕事をしていますか？ </t>
   </si>
@@ -57,6 +56,51 @@
 - làm quen vs gái nhật vì dễ thương</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve">②どうして当社を選んだのですか？ </t>
+  </si>
+  <si>
+    <t>- công ty cũng làm về giới thiệu nhân sự,
+- thông tin tuyển dụng : triển hệ thống quản lý hành chính nhân sự, kế toán, hệ thống dữ liệu nội bộ công ty.
+- có kinh nghiệm với những yêu cầu công việc trên
+- có hứng thú với những dịch vụ của công ty
+- công ty đã thành lập lâu nên chắc chắn sẽ có nhiều người giỏi để học hỏi, đặc biệt về phương pháp quản lý dự án</t>
+  </si>
+  <si>
+    <t xml:space="preserve">④入社したらどんな仕事がしたいですか？ </t>
+  </si>
+  <si>
+    <t>- trước mắt tôi có thể john vào các dự án liên quan đến quản lý nhân sự, hay web giới thiệu nhân sư của công ty vì tôi đã có kinh nghiệm trong lĩnh vực này.
+- sau đó tôi cũng muốn trải nghiệm nhưng dự án có mức độ khó hơn, và cũng có thể vào các dự án nghiêm cứu chuyên sâu về tư vấn giải pháp phần mềm</t>
+  </si>
+  <si>
+    <t>⑤あなたの長所と短所を教えてください</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⑥将来の夢はお持ちですか？ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">②今の仕事で日本語を毎日使っていますか。 </t>
+  </si>
+  <si>
+    <t>PMOは、個別プロジェクトに責任を持ち、プロジェクト終了に伴い解散するプロジェクトチームとは異なり、恒常的な部署として設置される。
+・PMOの主な役割として、①全社的なプロジェクトマネジメント手法の標準化、②品質管理、③人材育成等に責任を持つ。
+・PMOのその他の機能として、①複数プロジェクト間の調整、②ポートフォリオ分析、③個別プロジェクトのモニタリング等がある。</t>
+  </si>
+  <si>
+    <t>- Tương lai tôi muốn trở thành PMO(project management office). Nếu có thể, khi công ty thành lập chi nhánh ở việt nam, tôi cũng sẽ mong muốn góp sức mình để xây dựng chi nhanh việt nam thật vững mạnh.
+- tuy nhiên để đạt đươc điều đó, tôi cần fai nỗ lực rất nhiều, không những kỹ thuật mà con về kỹ năng quản lý, và điều hành dự án, kỹ năng giải quyết các vấn đề về nguồn lực, chi phí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Điểm mạnh của tôi là : 
+1.Luôn cố gắng hoàn thành nhiệm vụ của ngày , dù có phải OT cũng không vấn đề gì cả
+2. có thể học hỏi 1 ngôn ngữ, kỹ thuật mới khá nhanh.hơn nữa, Tôi luôn muốn ứng dụng các công nghệ mới để cải thiện hiệu năng cho sản phẩm của mình. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Điểm yếu của tôi là : đôi khi, tôi quá tập trung giải quyết 1 vấn đề, mà quên đi sự cân bằng và ưu tiên hoàn thành các nhiệm vụ khác nữa.
+Hướng khắc phục : đầu ngày, tôi luôn có đặt ra todo list, và xếp các task ưu tiên cao nhất lên trước. Và luôn đặt deadline cho từng task đó
+</t>
+  </si>
 </sst>
 </file>
 
@@ -66,13 +110,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -98,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -114,6 +158,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -395,20 +448,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="35.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.625" customWidth="1"/>
     <col min="3" max="3" width="84" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="206.25">
+    <row r="1" spans="1:3" ht="156.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -419,7 +472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="206.25">
+    <row r="2" spans="1:3" ht="156.75">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -427,7 +480,56 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3" ht="185.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="142.5">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="128.25">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="128.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="156.75">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.5">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:A6"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
